--- a/teaching/traditional_assets/database/data/norway/norway_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_computers_peripherals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.129</v>
+        <v>-0.222</v>
       </c>
       <c r="G2">
-        <v>-0.3774270584570657</v>
+        <v>-0.3682910273410368</v>
       </c>
       <c r="H2">
-        <v>-0.4462524289125888</v>
+        <v>-0.3843057397234325</v>
       </c>
       <c r="I2">
-        <v>-0.4290655611481506</v>
+        <v>-0.258358590642167</v>
       </c>
       <c r="J2">
-        <v>-0.4290655611481506</v>
+        <v>-0.258358590642167</v>
       </c>
       <c r="K2">
-        <v>-82.13</v>
+        <v>-69.967</v>
       </c>
       <c r="L2">
-        <v>-0.6091193615853567</v>
+        <v>-0.5522431647407968</v>
       </c>
       <c r="M2">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0009358805785443576</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.001473274077681724</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.121</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>16.079</v>
+        <v>15.28</v>
       </c>
       <c r="V2">
-        <v>0.1243638332430969</v>
+        <v>0.05856650057493294</v>
       </c>
       <c r="W2">
-        <v>-1.372794207131556</v>
+        <v>-2.569811320754717</v>
       </c>
       <c r="X2">
-        <v>0.09605874325225734</v>
+        <v>0.07204832365549309</v>
       </c>
       <c r="Y2">
-        <v>-1.468852950383814</v>
+        <v>-2.64185964441021</v>
       </c>
       <c r="Z2">
-        <v>1.90158454873285</v>
+        <v>2.540525365951474</v>
       </c>
       <c r="AA2">
-        <v>-2.924475264394931</v>
+        <v>-0.7569620253164556</v>
       </c>
       <c r="AB2">
-        <v>0.08927443650818687</v>
+        <v>0.06762819835174715</v>
       </c>
       <c r="AC2">
-        <v>-3.028970641808314</v>
+        <v>-0.8349289569474467</v>
       </c>
       <c r="AD2">
-        <v>34.225</v>
+        <v>39.28</v>
       </c>
       <c r="AE2">
-        <v>4.968129359248709</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>39.19312935924871</v>
+        <v>39.28</v>
       </c>
       <c r="AG2">
-        <v>23.11412935924871</v>
+        <v>24</v>
       </c>
       <c r="AH2">
-        <v>0.2326234650810588</v>
+        <v>0.1308548204410687</v>
       </c>
       <c r="AI2">
-        <v>0.3159841051621096</v>
+        <v>0.7328358208955223</v>
       </c>
       <c r="AJ2">
-        <v>0.1516634060797908</v>
+        <v>0.08424008424008425</v>
       </c>
       <c r="AK2">
-        <v>0.2141066884894618</v>
+        <v>0.6263048016701461</v>
       </c>
       <c r="AL2">
-        <v>2.105</v>
+        <v>14.358</v>
       </c>
       <c r="AM2">
-        <v>1.284</v>
+        <v>13.679</v>
       </c>
       <c r="AN2">
-        <v>-0.6857480614718788</v>
+        <v>-1.557247066286077</v>
       </c>
       <c r="AO2">
-        <v>-27.67695961995249</v>
+        <v>-2.279774341830338</v>
       </c>
       <c r="AP2">
-        <v>-0.463125475550476</v>
+        <v>-0.9514747859181731</v>
       </c>
       <c r="AQ2">
-        <v>-45.37383177570094</v>
+        <v>-2.392938080269025</v>
       </c>
     </row>
     <row r="3">
@@ -722,22 +719,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.02811735941320294</v>
+        <v>0.01520417028670721</v>
       </c>
       <c r="H3">
-        <v>0.02811735941320294</v>
+        <v>0.01520417028670721</v>
       </c>
       <c r="I3">
-        <v>-0.006796963387184771</v>
+        <v>-0.01728931364031277</v>
       </c>
       <c r="J3">
-        <v>-0.006796963387184771</v>
+        <v>-0.01728931364031277</v>
       </c>
       <c r="K3">
-        <v>-7.14</v>
+        <v>-0.147</v>
       </c>
       <c r="L3">
-        <v>-0.05819070904645476</v>
+        <v>-0.001277150304083406</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +758,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.94</v>
+        <v>5.86</v>
       </c>
       <c r="V3">
-        <v>0.04681528662420383</v>
+        <v>0.05322434150772026</v>
       </c>
       <c r="W3">
-        <v>-0.1180165289256198</v>
+        <v>-0.00310126582278481</v>
       </c>
       <c r="X3">
-        <v>0.1007190814948673</v>
+        <v>0.07204832365549309</v>
       </c>
       <c r="Y3">
-        <v>-0.2187356104204871</v>
+        <v>-0.07514958947827789</v>
       </c>
       <c r="Z3">
-        <v>8.120483870390345</v>
+        <v>11.09932497589199</v>
       </c>
       <c r="AA3">
-        <v>-0.05519463155326765</v>
+        <v>-0.1918997107039536</v>
       </c>
       <c r="AB3">
-        <v>0.08850548891156998</v>
+        <v>0.06695005156716119</v>
       </c>
       <c r="AC3">
-        <v>-0.1437001204648376</v>
+        <v>-0.2588497622711148</v>
       </c>
       <c r="AD3">
-        <v>8.210000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AE3">
-        <v>4.819937038037858</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.02993703803786</v>
+        <v>10.8</v>
       </c>
       <c r="AG3">
-        <v>10.08993703803786</v>
+        <v>4.94</v>
       </c>
       <c r="AH3">
-        <v>0.1718310412350965</v>
+        <v>0.08933002481389579</v>
       </c>
       <c r="AI3">
-        <v>0.2156205628649938</v>
+        <v>0.1803005008347245</v>
       </c>
       <c r="AJ3">
-        <v>0.1384270236476181</v>
+        <v>0.04294158553546593</v>
       </c>
       <c r="AK3">
-        <v>0.1755078811681758</v>
+        <v>0.0914137675795707</v>
       </c>
       <c r="AL3">
-        <v>0.38</v>
+        <v>1.31</v>
       </c>
       <c r="AM3">
-        <v>-0.04499999999999998</v>
+        <v>0.783</v>
       </c>
       <c r="AN3">
-        <v>2.974637681159421</v>
+        <v>2.245322245322245</v>
       </c>
       <c r="AO3">
-        <v>-3.026315789473684</v>
+        <v>-1.519083969465649</v>
       </c>
       <c r="AP3">
-        <v>3.655774289144152</v>
+        <v>1.027027027027027</v>
       </c>
       <c r="AQ3">
-        <v>25.55555555555556</v>
+        <v>-2.541507024265645</v>
       </c>
     </row>
     <row r="4">
@@ -847,25 +844,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.129</v>
+        <v>-0.222</v>
       </c>
       <c r="G4">
-        <v>-53.13199105145414</v>
+        <v>-95.28225806451613</v>
       </c>
       <c r="H4">
-        <v>-58.38926174496645</v>
+        <v>-98.99193548387098</v>
       </c>
       <c r="I4">
-        <v>-50.33557046979865</v>
+        <v>-60.28225806451613</v>
       </c>
       <c r="J4">
-        <v>-50.33557046979865</v>
+        <v>-60.28225806451613</v>
       </c>
       <c r="K4">
-        <v>-63</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="L4">
-        <v>-70.46979865771812</v>
+        <v>-137.2983870967742</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,73 +886,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>13</v>
+        <v>7.05</v>
       </c>
       <c r="V4">
-        <v>0.8387096774193549</v>
+        <v>0.1081288343558282</v>
       </c>
       <c r="W4">
-        <v>-0.6900328587075575</v>
+        <v>-2.569811320754717</v>
       </c>
       <c r="X4">
-        <v>0.1811656015813481</v>
+        <v>0.08550957876161185</v>
       </c>
       <c r="Y4">
-        <v>-0.8711984602889056</v>
+        <v>-2.655320899516329</v>
       </c>
       <c r="Z4">
-        <v>0.01631386861313869</v>
+        <v>0.01255696202531646</v>
       </c>
       <c r="AA4">
-        <v>-0.821167883211679</v>
+        <v>-0.7569620253164556</v>
       </c>
       <c r="AB4">
-        <v>0.1198058511930336</v>
+        <v>0.07796693163099112</v>
       </c>
       <c r="AC4">
-        <v>-0.9409737344047127</v>
+        <v>-0.8349289569474467</v>
       </c>
       <c r="AD4">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="AG4">
-        <v>13</v>
+        <v>18.65</v>
       </c>
       <c r="AH4">
-        <v>0.6265060240963856</v>
+        <v>0.2827282728272827</v>
       </c>
       <c r="AI4">
-        <v>0.4952380952380953</v>
+        <v>-1.992248062015503</v>
       </c>
       <c r="AJ4">
-        <v>0.456140350877193</v>
+        <v>0.2224209898628503</v>
       </c>
       <c r="AK4">
-        <v>0.3291139240506329</v>
+        <v>-0.9348370927318294</v>
       </c>
       <c r="AL4">
-        <v>1.58</v>
+        <v>12.8</v>
       </c>
       <c r="AM4">
-        <v>1.288</v>
+        <v>12.648</v>
       </c>
       <c r="AN4">
-        <v>-0.6341463414634146</v>
+        <v>-0.8741496598639455</v>
       </c>
       <c r="AO4">
-        <v>-28.48101265822785</v>
+        <v>-2.3359375</v>
       </c>
       <c r="AP4">
-        <v>-0.3170731707317073</v>
+        <v>-0.6343537414965986</v>
       </c>
       <c r="AQ4">
-        <v>-34.93788819875776</v>
+        <v>-2.364010120177103</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hiddn Solutions ASA (OB:HIDDN)</t>
+          <t>Xplora Technologies AS (OB:XPLRA)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,22 +972,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>-1.042372881355932</v>
+        <v>-0.1036936936936937</v>
       </c>
       <c r="H5">
-        <v>-1.966101694915254</v>
+        <v>-0.1207207207207207</v>
       </c>
       <c r="I5">
-        <v>-2.122304434000919</v>
+        <v>-0.07594594594594595</v>
       </c>
       <c r="J5">
-        <v>-2.122304434000919</v>
+        <v>-0.07594594594594595</v>
       </c>
       <c r="K5">
-        <v>-5.18</v>
+        <v>-1.72</v>
       </c>
       <c r="L5">
-        <v>-2.194915254237288</v>
+        <v>-0.154954954954955</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1014,186 +1011,58 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.139</v>
+        <v>2.37</v>
       </c>
       <c r="V5">
-        <v>0.03166287015945331</v>
-      </c>
-      <c r="W5">
-        <v>-2.055555555555555</v>
+        <v>0.02768691588785047</v>
       </c>
       <c r="X5">
-        <v>0.09139840500964737</v>
-      </c>
-      <c r="Y5">
-        <v>-2.146953960565203</v>
-      </c>
-      <c r="Z5">
-        <v>2.369020468990834</v>
-      </c>
-      <c r="AA5">
-        <v>-5.027782645578183</v>
+        <v>0.06906508806457258</v>
       </c>
       <c r="AB5">
-        <v>0.0891849036337327</v>
-      </c>
-      <c r="AC5">
-        <v>-5.116967549211916</v>
+        <v>0.06762819835174715</v>
       </c>
       <c r="AD5">
-        <v>0.015</v>
+        <v>2.78</v>
       </c>
       <c r="AE5">
-        <v>0.1481923212108518</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.1631923212108518</v>
+        <v>2.78</v>
       </c>
       <c r="AG5">
-        <v>0.0241923212108518</v>
+        <v>0.4099999999999997</v>
       </c>
       <c r="AH5">
-        <v>0.03584129764311236</v>
+        <v>0.0314550803349174</v>
       </c>
       <c r="AI5">
-        <v>-1.721298562469721</v>
+        <v>0.4212121212121212</v>
       </c>
       <c r="AJ5">
-        <v>0.005480577068335716</v>
+        <v>0.004766887571212647</v>
       </c>
       <c r="AK5">
-        <v>-0.1034710294210176</v>
+        <v>0.09692671394799049</v>
       </c>
       <c r="AL5">
-        <v>0.14</v>
+        <v>0.248</v>
       </c>
       <c r="AM5">
-        <v>0.138</v>
+        <v>0.248</v>
       </c>
       <c r="AN5">
-        <v>-0.003068112088361628</v>
+        <v>-4.384858044164037</v>
       </c>
       <c r="AO5">
-        <v>-36.42857142857142</v>
+        <v>-3.399193548387097</v>
       </c>
       <c r="AP5">
-        <v>-0.004948316876836122</v>
+        <v>-0.6466876971608828</v>
       </c>
       <c r="AQ5">
-        <v>-36.95652173913043</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Huddly AS (OTCNO:HUDDLY)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Computers/Peripherals</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>-0.4932432432432433</v>
-      </c>
-      <c r="H6">
-        <v>-0.7635135135135135</v>
-      </c>
-      <c r="I6">
-        <v>-0.7894144144144143</v>
-      </c>
-      <c r="J6">
-        <v>-0.7894144144144143</v>
-      </c>
-      <c r="K6">
-        <v>-6.81</v>
-      </c>
-      <c r="L6">
-        <v>-0.7668918918918918</v>
-      </c>
-      <c r="M6">
-        <v>0.121</v>
-      </c>
-      <c r="N6">
-        <v>0.00259656652360515</v>
-      </c>
-      <c r="O6">
-        <v>-0.01776798825256975</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.121</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.08936396938264103</v>
-      </c>
-      <c r="AB6">
-        <v>0.08936396938264103</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0.005</v>
-      </c>
-      <c r="AM6">
-        <v>-0.09699999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>-0</v>
-      </c>
-      <c r="AO6">
-        <v>-1402</v>
-      </c>
-      <c r="AP6">
-        <v>-0</v>
-      </c>
-      <c r="AQ6">
-        <v>72.26804123711341</v>
+        <v>-3.399193548387097</v>
       </c>
     </row>
   </sheetData>
